--- a/WKRDB-EST2/testData/WGRDBES-EST_test_RS_SamplingScheme_owners.xlsx
+++ b/WKRDB-EST2/testData/WGRDBES-EST_test_RS_SamplingScheme_owners.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\mynd\kibi\projects_wks_wgs_rcgs\WGRDBES-EST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\mynd\RDB\WKRDB-EST\WK_RDBES\WKRDB-EST2\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>WGRDBES-EST TEST 1</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>David Currie (David.Currie@Marine.ie)</t>
+  </si>
+  <si>
+    <t>José Castro Pampillón &lt;jose.castro@ieo.es&gt;</t>
+  </si>
+  <si>
+    <t>Richard Meitern &lt;richard.meitern@ut.ee&gt;</t>
+  </si>
+  <si>
+    <t>Kirsten Birch Håkansson &lt;kih@aqua.dtu.dk&gt;</t>
   </si>
 </sst>
 </file>
@@ -382,7 +391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -418,15 +429,24 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
